--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ddf66c642946275/Dokumenter/Høst 2023/TET4565 Spesialiseringsemne/Hydro_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{594BD786-5C62-4408-B2AD-117F6FE787D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{594BD786-5C62-4408-B2AD-117F6FE787D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69170523-3273-420F-B2CB-E48261940FCA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{949B817D-CAC5-4F29-9168-660742407EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{949B817D-CAC5-4F29-9168-660742407EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,15 +418,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -436,12 +440,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>600</v>
@@ -450,7 +454,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,13 +462,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -478,15 +482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>200</v>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -45,19 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -93,15 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -418,13 +409,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,13 +433,13 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>200</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>600</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -456,13 +447,13 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3" s="3">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -470,13 +461,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -484,13 +475,13 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>200</v>
       </c>
     </row>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Parameter</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>P_max</t>
+  </si>
+  <si>
+    <t>H_max</t>
   </si>
 </sst>
 </file>
@@ -45,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +59,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -87,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -403,16 +415,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -485,6 +497,20 @@
         <v>200</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +59,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,15 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -421,10 +412,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -497,17 +488,17 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1500</v>
       </c>
-      <c r="C6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -505,7 +505,7 @@
         <v>1500</v>
       </c>
       <c r="C6" s="3">
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +59,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,15 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -421,10 +412,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -488,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -497,17 +488,17 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1500</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1750</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>Ci</t>
-  </si>
-  <si>
     <t>yi</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>P_max</t>
-  </si>
-  <si>
-    <t>H_max</t>
   </si>
 </sst>
 </file>
@@ -406,7 +400,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -437,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>600</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -451,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -465,41 +459,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
         <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1750</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
